--- a/Original Excel Files/DT-DZ.xlsx
+++ b/Original Excel Files/DT-DZ.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0BFAB9-910F-4AA1-B617-C581249D7DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,18 +348,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -369,6 +379,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -417,7 +430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,9 +463,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,6 +515,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -660,11 +707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A4:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,428 +739,456 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1994</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1963</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1963</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1994</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1980</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>54</v>
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1972</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3" t="s">
-        <v>57</v>
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1978</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1994</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2002</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1980</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" t="s">
         <v>75</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="5">
+      <c r="F17" s="9">
         <v>1996</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1994</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1972</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1978</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1994</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>49</v>
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1959</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2002</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>51</v>
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" t="s">
-        <v>81</v>
+      <c r="A22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1986</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1959</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>63</v>
+      <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1969</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
+      <c r="A27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1961</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1986</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>66</v>
+      <c r="A28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1994</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1969</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1961</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>4</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G44">
+    <sortCondition ref="A1:A44"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1125,7 +1200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Original Excel Files/DT-DZ.xlsx
+++ b/Original Excel Files/DT-DZ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0BFAB9-910F-4AA1-B617-C581249D7DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8055D8AF-FD73-4179-AB04-3589519AEB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>DU819 .A2 C69 1997</t>
   </si>
   <si>
-    <t>Cox</t>
-  </si>
-  <si>
-    <t>Paul Alan</t>
-  </si>
-  <si>
     <t>1997 H</t>
   </si>
   <si>
@@ -37,18 +31,6 @@
     <t>DT14 .A372</t>
   </si>
   <si>
-    <t>Paden</t>
-  </si>
-  <si>
-    <t>John (Ed)</t>
-  </si>
-  <si>
-    <t>Soja</t>
-  </si>
-  <si>
-    <t>Edward W.</t>
-  </si>
-  <si>
     <t>1970 P</t>
   </si>
   <si>
@@ -58,12 +40,6 @@
     <t>DT444 .K87</t>
   </si>
   <si>
-    <t>Kurtz</t>
-  </si>
-  <si>
-    <t>Laura S.</t>
-  </si>
-  <si>
     <t>1978 H</t>
   </si>
   <si>
@@ -73,12 +49,6 @@
     <t>DT471 .C8</t>
   </si>
   <si>
-    <t>Curtin</t>
-  </si>
-  <si>
-    <t>Philip D.</t>
-  </si>
-  <si>
     <t>1967 P</t>
   </si>
   <si>
@@ -88,12 +58,6 @@
     <t>DT779.95 .M38 A34 1987</t>
   </si>
   <si>
-    <t>Mathabane</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
     <t>1987 P</t>
   </si>
   <si>
@@ -103,12 +67,6 @@
     <t>DU28.3 .G69</t>
   </si>
   <si>
-    <t>Grattan</t>
-  </si>
-  <si>
-    <t>C. Hartley</t>
-  </si>
-  <si>
     <t>1963 H</t>
   </si>
   <si>
@@ -124,108 +82,66 @@
     <t>DT1756 .T88</t>
   </si>
   <si>
-    <t>Tutu, Desmond</t>
-  </si>
-  <si>
     <t>The Rainbow People of God</t>
   </si>
   <si>
     <t>DT33 .F313</t>
   </si>
   <si>
-    <t>Fanon, Fratnz</t>
-  </si>
-  <si>
     <t>The Wretched of the Earth</t>
   </si>
   <si>
     <t>DT365.2I262513 1994</t>
   </si>
   <si>
-    <t>Hamdun, Said and Noel King</t>
-  </si>
-  <si>
     <t>Ibn Battuta In Black Africa</t>
   </si>
   <si>
     <t>DT429 .T87</t>
   </si>
   <si>
-    <t>Turnbull, Colin M.</t>
-  </si>
-  <si>
     <t>The Mountain People</t>
   </si>
   <si>
-    <t>Kurtz, Laura S.</t>
-  </si>
-  <si>
     <t>DT532.2 .N513</t>
   </si>
   <si>
-    <t>Niane, D .T.</t>
-  </si>
-  <si>
     <t>Sundiata</t>
   </si>
   <si>
-    <t>Niane, D. T.</t>
-  </si>
-  <si>
     <t>Sundiata: An Epic of Old Mali</t>
   </si>
   <si>
     <t>DT59 .C243 M392</t>
   </si>
   <si>
-    <t>The Egyptian Museum</t>
-  </si>
-  <si>
     <t>A Guide to the Egyptian Museum, Cairo</t>
   </si>
   <si>
     <t>DT60 .M33</t>
   </si>
   <si>
-    <t>Magi, Giovanna</t>
-  </si>
-  <si>
-    <t>Saqqara</t>
-  </si>
-  <si>
     <t>DT73 .B44 R43 1996</t>
   </si>
   <si>
-    <t>Reeves, Nicholas</t>
-  </si>
-  <si>
     <t>The Complete Tutankhamun</t>
   </si>
   <si>
     <t>DT764 .B8 T4</t>
   </si>
   <si>
-    <t>Thomas, Elizabeth Marshall</t>
-  </si>
-  <si>
     <t>The Harmless People</t>
   </si>
   <si>
     <t>DT779.952 .A63 1986</t>
   </si>
   <si>
-    <t>Uhlig, Mark ed.</t>
-  </si>
-  <si>
     <t>Apartheid in Crisis</t>
   </si>
   <si>
     <t>DU740 .M39</t>
   </si>
   <si>
-    <t>Mead, Margaret</t>
-  </si>
-  <si>
     <t>Sex and Temperament</t>
   </si>
   <si>
@@ -238,12 +154,6 @@
     <t>DT63 .T88 1986</t>
   </si>
   <si>
-    <t>Tutu</t>
-  </si>
-  <si>
-    <t>Desmond</t>
-  </si>
-  <si>
     <t>1986 P</t>
   </si>
   <si>
@@ -253,12 +163,6 @@
     <t>DT756 .M34 1993</t>
   </si>
   <si>
-    <t>Mandela</t>
-  </si>
-  <si>
-    <t>Nelson</t>
-  </si>
-  <si>
     <t>1993 P</t>
   </si>
   <si>
@@ -268,25 +172,22 @@
     <t>DT763 .L28 1971</t>
   </si>
   <si>
-    <t>Guma</t>
-  </si>
-  <si>
-    <t>Alex La</t>
-  </si>
-  <si>
     <t>1971 P</t>
   </si>
   <si>
     <t>Apartheid: A Collection of Writings on South African Racism by South Africans</t>
   </si>
   <si>
-    <t>Uhlig</t>
-  </si>
-  <si>
-    <t>Mark A. (Ed)</t>
-  </si>
-  <si>
     <t>Apatheid in Crisis: Perspectives on the Coming Battle for South Africa</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -348,27 +249,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,480 +606,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:G41"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:G27"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="80" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1994</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1963</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1994</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1972</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B7" s="8">
+        <v>1978</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1994</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2002</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1980</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5" t="s">
+      <c r="B15" s="7">
+        <v>1996</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="9">
-        <v>1994</v>
-      </c>
-      <c r="G5" s="5" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="B18" s="8">
+        <v>1959</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="9">
-        <v>1963</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="B20" s="7">
+        <v>1986</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
+      <c r="B24" s="8">
+        <v>1969</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="4">
-        <v>1994</v>
-      </c>
-      <c r="G7" s="2" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B25" s="7">
+        <v>1961</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1972</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1978</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1994</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2002</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1980</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1996</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1959</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="9">
-        <v>1986</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1969</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="9">
-        <v>1961</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>0</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="F29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G44">
-    <sortCondition ref="A1:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C42">
+    <sortCondition ref="A1:A42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
